--- a/biology/Botanique/Sageretia_theezans/Sageretia_theezans.xlsx
+++ b/biology/Botanique/Sageretia_theezans/Sageretia_theezans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sageretia theezans est une espèce de plantes à fleurs de la famille des Rhamnacées. C'est un arbuste indigène du sud de la Chine. Il est communément utilisé dans l'art du Bonsaï.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sageretia theezans peut atteindre une hauteur de 1 à 3 m et ses petites feuilles vertes mesurent 1,5 à 4 cm de long. Le tronc est multicolore et de la texture du vieux cuir.
 Il est sempervirent et ses fleurs sont petites et sans éclat.
@@ -544,7 +558,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">S. thea
  Portail de la botanique   Portail de la Chine   Portail du bonsaï                   </t>
